--- a/Sprint_Documents/Sprint_Plan.xlsx
+++ b/Sprint_Documents/Sprint_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/--Projects--/Personal/ebay_Auto_Seller/recs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/--Projects--/Personal/ebay_Auto_Seller/Sprint_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F79D777-1A42-194D-BB16-0DF0E50E3B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8895EDDF-86C6-6B4E-9DA9-D23C12D91C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32920" yWindow="2860" windowWidth="19200" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1135,8 +1135,8 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Sprint_Documents/Sprint_Plan.xlsx
+++ b/Sprint_Documents/Sprint_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/--Projects--/Personal/ebay_Auto_Seller/Sprint_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8895EDDF-86C6-6B4E-9DA9-D23C12D91C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4DBAA3-35C9-304D-9594-E4096A6970BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32920" yWindow="2860" windowWidth="19200" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Plan" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>DONE</t>
   </si>
@@ -135,9 +135,6 @@
     <t>S4</t>
   </si>
   <si>
-    <t>Sprint 3 - Image Classification</t>
-  </si>
-  <si>
     <t>Sprint 4 - RAG</t>
   </si>
   <si>
@@ -175,6 +172,15 @@
   </si>
   <si>
     <t>Start e-Commerce DataScraper Build</t>
+  </si>
+  <si>
+    <t>Checkout Minstrel for RAG Capabilities</t>
+  </si>
+  <si>
+    <t>Checkout RAG Licensing on Models</t>
+  </si>
+  <si>
+    <t>Sprint 3 - RAG Service</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +269,12 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -332,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -480,6 +492,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,7 +525,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -562,9 +583,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="9" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -672,6 +690,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -905,8 +944,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:G13" totalsRowShown="0" dataDxfId="6" headerRowCellStyle="Heading 1">
-  <autoFilter ref="B2:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:G16" totalsRowShown="0" dataDxfId="6" headerRowCellStyle="Heading 1">
+  <autoFilter ref="B2:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="5" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="4" dataCellStyle="Date"/>
@@ -1133,10 +1172,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1152,67 +1191,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="48">
+      <c r="B3" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="47">
         <v>45418</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="47">
         <v>45422</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <v>1</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="49">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="47"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>33</v>
+      <c r="A4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="16">
         <v>45418</v>
@@ -1220,23 +1259,23 @@
       <c r="D4" s="16">
         <v>45420</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>1</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="52">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="45" t="s">
-        <v>34</v>
+      <c r="G4" s="44" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>37</v>
       </c>
       <c r="C5" s="16">
         <v>45420</v>
@@ -1244,23 +1283,23 @@
       <c r="D5" s="16">
         <v>45422</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>1</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="52">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>41</v>
       </c>
       <c r="C6" s="16">
         <v>45421</v>
@@ -1268,191 +1307,205 @@
       <c r="D6" s="16">
         <v>45423</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>1</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="52">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="45" t="s">
-        <v>40</v>
+      <c r="G6" s="44" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>45425</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>45430</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>0</v>
       </c>
       <c r="F7" s="12">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="31">
+      <c r="A8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="30">
         <v>45425</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <v>45427</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>0</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="52">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
-        <v>39</v>
+      <c r="A9" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>45427</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>45430</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>0</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="52">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="19">
+        <v>45433</v>
+      </c>
+      <c r="D10" s="19">
+        <v>45438</v>
+      </c>
       <c r="E10" s="17">
         <v>0</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="33">
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="32">
         <v>0</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="52">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33">
+      <c r="A12" s="22"/>
+      <c r="B12" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32">
         <v>0</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="52">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="30"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>0</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="52">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="41">
+      <c r="B14" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="40">
         <v>0</v>
       </c>
-      <c r="F14" s="21">
-        <f>--(E14 E14&gt;=1)</f>
+      <c r="F14" s="57">
+        <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="52">
+        <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="58">
+        <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="56"/>
     </row>
     <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
@@ -1505,10 +1558,26 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
+    <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="E5:E17 E3">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1522,7 +1591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1535,22 +1604,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E14">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E45B70CA-B6A0-4E88-BB95-1D31570318B9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations xWindow="542" yWindow="341" count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1581,7 +1636,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E3</xm:sqref>
+          <xm:sqref>E5:E17 E3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1F9BA2A4-22BD-4F48-AA1A-AB6EBD368454}">
@@ -1601,24 +1656,7 @@
           <xm:sqref>E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E45B70CA-B6A0-4E88-BB95-1D31570318B9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="5"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E5:E14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{D324F62F-E8A1-7D4C-A618-C6238788154A}">
+          <x14:cfRule type="iconSet" priority="10" id="{D324F62F-E8A1-7D4C-A618-C6238788154A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1637,7 +1675,7 @@
           <xm:sqref>F3:F6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="55" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
+          <x14:cfRule type="iconSet" priority="57" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1653,10 +1691,10 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F7 F10 F14</xm:sqref>
+          <xm:sqref>F7 F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{40C6D47B-9DB0-D24D-A7A5-90E4D855D98A}">
+          <x14:cfRule type="iconSet" priority="7" id="{40C6D47B-9DB0-D24D-A7A5-90E4D855D98A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1675,7 +1713,7 @@
           <xm:sqref>F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{D2716630-4060-6B4E-92AA-292FB23934E0}">
+          <x14:cfRule type="iconSet" priority="6" id="{D2716630-4060-6B4E-92AA-292FB23934E0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1694,7 +1732,7 @@
           <xm:sqref>F9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{94036F2F-8B94-8D4C-B12D-51122F6D85F7}">
+          <x14:cfRule type="iconSet" priority="5" id="{94036F2F-8B94-8D4C-B12D-51122F6D85F7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1713,7 +1751,7 @@
           <xm:sqref>F11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{DBCEC8B6-1121-F449-9DEE-A9BD26E6AE1A}">
+          <x14:cfRule type="iconSet" priority="4" id="{DBCEC8B6-1121-F449-9DEE-A9BD26E6AE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1732,7 +1770,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{5ADEE4CE-2BED-DD4E-8930-444E7C1A73B0}">
+          <x14:cfRule type="iconSet" priority="3" id="{5ADEE4CE-2BED-DD4E-8930-444E7C1A73B0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1748,7 +1786,45 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F13</xm:sqref>
+          <xm:sqref>F13:F15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{0CE84CE3-5280-3F42-B189-E63A47BECFA9}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{4AE52536-BB3F-0E45-B083-8A6374A42ABF}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1791,13 +1867,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="2"/>
@@ -1820,7 +1896,7 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1836,7 +1912,7 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1850,7 +1926,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>22</v>

--- a/Sprint_Documents/Sprint_Plan.xlsx
+++ b/Sprint_Documents/Sprint_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/--Projects--/Personal/ebay_Auto_Seller/Sprint_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4DBAA3-35C9-304D-9594-E4096A6970BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E104DAD8-1C85-1D42-A577-9CAFFB64E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>DONE</t>
   </si>
@@ -96,9 +96,6 @@
     <t>S1</t>
   </si>
   <si>
-    <t>Factor code for Abitrary API</t>
-  </si>
-  <si>
     <t>Get selling item info: image, price, description, duration from post to sale, etc.</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>As an artist/entrepreneur I would like a tool that can help me generate ideas for how to market my product (reccomend price, description, etc.) so that my business can be more successful.</t>
   </si>
   <si>
-    <t>Sprint 2 - Data Collection</t>
-  </si>
-  <si>
     <t>S4</t>
   </si>
   <si>
@@ -174,13 +168,40 @@
     <t>Start e-Commerce DataScraper Build</t>
   </si>
   <si>
-    <t>Checkout Minstrel for RAG Capabilities</t>
-  </si>
-  <si>
-    <t>Checkout RAG Licensing on Models</t>
-  </si>
-  <si>
     <t>Sprint 3 - RAG Service</t>
+  </si>
+  <si>
+    <t>Research RAG Pipeline Frameworks and models to use in the RAG Service Pipeline</t>
+  </si>
+  <si>
+    <t>Sprint 2 - Data Collection and RAG Research</t>
+  </si>
+  <si>
+    <t>We'll need an image classifier, retrieval model, generative model, and a good framework for setting up the pipeline.</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>Factor DataScraper code for Abitrary API Calls</t>
+  </si>
+  <si>
+    <t>Map Out RAG Service Pipeline</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>Have the pipeline of models mapped out, showing the flow of how each component will interact with each other- the specifications of each component- and how/why each component is used (compared to other components that could've been used).</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>Experiment with the RAG in code form. Either by practicing arbitrary techniques or with the proposed pipeline for this project.</t>
+  </si>
+  <si>
+    <t>Experiment coding a RAG Pipeline</t>
   </si>
 </sst>
 </file>
@@ -525,7 +546,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -589,9 +610,6 @@
     <xf numFmtId="164" fontId="7" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -619,9 +637,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -685,32 +700,23 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1174,8 +1180,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1191,67 +1197,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="47">
+      <c r="B3" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="45">
         <v>45418</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="45">
         <v>45422</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>1</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="24" t="s">
         <v>32</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="16">
         <v>45418</v>
@@ -1259,23 +1265,23 @@
       <c r="D4" s="16">
         <v>45420</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="30">
         <v>1</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="50">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>36</v>
+      <c r="B5" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="16">
         <v>45420</v>
@@ -1283,23 +1289,23 @@
       <c r="D5" s="16">
         <v>45422</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="50">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="44" t="s">
-        <v>39</v>
+      <c r="G5" s="42" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>40</v>
+      <c r="A6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="16">
         <v>45421</v>
@@ -1307,93 +1313,90 @@
       <c r="D6" s="16">
         <v>45423</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <v>1</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="50">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="44" t="s">
-        <v>39</v>
+      <c r="G6" s="42" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="A7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="33">
         <v>45425</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="33">
         <v>45430</v>
       </c>
-      <c r="E7" s="37">
-        <v>0</v>
+      <c r="E7" s="35">
+        <v>1</v>
       </c>
       <c r="F7" s="12">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="29">
+        <v>45425</v>
+      </c>
+      <c r="D8" s="29">
+        <v>45427</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="50">
+        <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="30">
-        <v>45425</v>
-      </c>
-      <c r="D8" s="30">
-        <v>45427</v>
-      </c>
-      <c r="E8" s="32">
-        <v>0</v>
-      </c>
-      <c r="F8" s="52">
-        <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="30">
-        <v>45427</v>
-      </c>
-      <c r="D9" s="30">
-        <v>45430</v>
-      </c>
-      <c r="E9" s="32">
-        <v>0</v>
-      </c>
-      <c r="F9" s="52">
-        <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>19</v>
+      <c r="C9" s="29">
+        <v>45428</v>
+      </c>
+      <c r="D9" s="29">
+        <v>45432</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>45</v>
+      <c r="A10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="19">
         <v>45433</v>
@@ -1408,104 +1411,130 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="32">
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="29">
+        <v>45432</v>
+      </c>
+      <c r="D11" s="29">
+        <v>45434</v>
+      </c>
+      <c r="E11" s="30">
         <v>0</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="50">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32">
+      <c r="G11" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="29">
+        <v>45434</v>
+      </c>
+      <c r="D12" s="29">
+        <v>45436</v>
+      </c>
+      <c r="E12" s="30">
         <v>0</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="50">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="32">
+      <c r="G12" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="29">
+        <v>45436</v>
+      </c>
+      <c r="D13" s="29">
+        <v>45438</v>
+      </c>
+      <c r="E13" s="30">
         <v>0</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="50">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="28" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="40">
+      <c r="A14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="38">
         <v>0</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="51">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="39"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="52">
+      <c r="A15" s="56"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="50">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="56"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="58">
+      <c r="A16" s="21"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="50">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="56"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="29"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
@@ -1576,8 +1605,22 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1F9BA2A4-22BD-4F48-AA1A-AB6EBD368454}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E5:E17 E3">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1586,20 +1629,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{19E68F33-B030-1441-B8F4-BD26AEFA7DDD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1F9BA2A4-22BD-4F48-AA1A-AB6EBD368454}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1622,6 +1651,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1F9BA2A4-22BD-4F48-AA1A-AB6EBD368454}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{19E68F33-B030-1441-B8F4-BD26AEFA7DDD}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -1639,24 +1685,7 @@
           <xm:sqref>E5:E17 E3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1F9BA2A4-22BD-4F48-AA1A-AB6EBD368454}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="5"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{D324F62F-E8A1-7D4C-A618-C6238788154A}">
+          <x14:cfRule type="iconSet" priority="12" id="{D324F62F-E8A1-7D4C-A618-C6238788154A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1675,7 +1704,7 @@
           <xm:sqref>F3:F6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="57" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
+          <x14:cfRule type="iconSet" priority="59" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1694,7 +1723,7 @@
           <xm:sqref>F7 F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{40C6D47B-9DB0-D24D-A7A5-90E4D855D98A}">
+          <x14:cfRule type="iconSet" priority="9" id="{40C6D47B-9DB0-D24D-A7A5-90E4D855D98A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1713,7 +1742,7 @@
           <xm:sqref>F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{D2716630-4060-6B4E-92AA-292FB23934E0}">
+          <x14:cfRule type="iconSet" priority="8" id="{D2716630-4060-6B4E-92AA-292FB23934E0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1732,7 +1761,7 @@
           <xm:sqref>F9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{94036F2F-8B94-8D4C-B12D-51122F6D85F7}">
+          <x14:cfRule type="iconSet" priority="5" id="{5ADEE4CE-2BED-DD4E-8930-444E7C1A73B0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1748,10 +1777,10 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F11</xm:sqref>
+          <xm:sqref>F14:F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{DBCEC8B6-1121-F449-9DEE-A9BD26E6AE1A}">
+          <x14:cfRule type="iconSet" priority="3" id="{4AE52536-BB3F-0E45-B083-8A6374A42ABF}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1767,29 +1796,10 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F12</xm:sqref>
+          <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{5ADEE4CE-2BED-DD4E-8930-444E7C1A73B0}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F13:F15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{0CE84CE3-5280-3F42-B189-E63A47BECFA9}">
+          <x14:cfRule type="iconSet" priority="4" id="{0CE84CE3-5280-3F42-B189-E63A47BECFA9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1808,7 +1818,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{4AE52536-BB3F-0E45-B083-8A6374A42ABF}">
+          <x14:cfRule type="iconSet" priority="1" id="{9998EC14-F8E8-7A4E-A2E7-C32577A4ABD4}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1824,7 +1834,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F16</xm:sqref>
+          <xm:sqref>F11:F13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1867,13 +1877,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="2"/>
@@ -1884,7 +1894,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>12</v>
@@ -1896,11 +1906,11 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
-        <v>24</v>
+      <c r="A4" s="54" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -1912,9 +1922,9 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>11</v>
@@ -1926,10 +1936,10 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="18"/>
@@ -1938,7 +1948,7 @@
     <row r="7" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>

--- a/Sprint_Documents/Sprint_Plan.xlsx
+++ b/Sprint_Documents/Sprint_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/--Projects--/Personal/ebay_Auto_Seller/Sprint_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E104DAD8-1C85-1D42-A577-9CAFFB64E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E281AECB-D08A-F344-9CAD-E9FD5A3C8F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>DONE</t>
   </si>
@@ -126,82 +126,106 @@
     <t>As an artist/entrepreneur I would like a tool that can help me generate ideas for how to market my product (reccomend price, description, etc.) so that my business can be more successful.</t>
   </si>
   <si>
+    <t>Sprint 1 - Defining Services</t>
+  </si>
+  <si>
+    <t>Create Micro-Service Mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define the I/O for each microservice and there relationships. </t>
+  </si>
+  <si>
+    <t>T00</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>Learn About Docker Images</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>Containerizing Programs (Micro-services)</t>
+  </si>
+  <si>
+    <t>Make Github Repo</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Start e-Commerce DataScraper Build</t>
+  </si>
+  <si>
+    <t>Research RAG Pipeline Frameworks and models to use in the RAG Service Pipeline</t>
+  </si>
+  <si>
+    <t>We'll need an image classifier, retrieval model, generative model, and a good framework for setting up the pipeline.</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>Factor DataScraper code for Abitrary API Calls</t>
+  </si>
+  <si>
+    <t>Map Out RAG Service Pipeline</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>Have the pipeline of models mapped out, showing the flow of how each component will interact with each other- the specifications of each component- and how/why each component is used (compared to other components that could've been used).</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>Experiment with the RAG in code form. Either by practicing arbitrary techniques or with the proposed pipeline for this project.</t>
+  </si>
+  <si>
+    <t>Experiment coding a RAG Pipeline</t>
+  </si>
+  <si>
+    <t>Build Database Builder Code</t>
+  </si>
+  <si>
     <t>S4</t>
   </si>
   <si>
-    <t>Sprint 4 - RAG</t>
-  </si>
-  <si>
-    <t>Sprint 1 - Defining Services</t>
-  </si>
-  <si>
-    <t>Create Micro-Service Mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define the I/O for each microservice and there relationships. </t>
-  </si>
-  <si>
-    <t>T00</t>
-  </si>
-  <si>
-    <t>T01</t>
-  </si>
-  <si>
-    <t>Learn About Docker Images</t>
-  </si>
-  <si>
-    <t>T02</t>
-  </si>
-  <si>
-    <t>T03</t>
-  </si>
-  <si>
-    <t>Containerizing Programs (Micro-services)</t>
-  </si>
-  <si>
-    <t>Make Github Repo</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>Start e-Commerce DataScraper Build</t>
-  </si>
-  <si>
-    <t>Sprint 3 - RAG Service</t>
-  </si>
-  <si>
-    <t>Research RAG Pipeline Frameworks and models to use in the RAG Service Pipeline</t>
-  </si>
-  <si>
-    <t>Sprint 2 - Data Collection and RAG Research</t>
-  </si>
-  <si>
-    <t>We'll need an image classifier, retrieval model, generative model, and a good framework for setting up the pipeline.</t>
-  </si>
-  <si>
-    <t>T04</t>
-  </si>
-  <si>
-    <t>Factor DataScraper code for Abitrary API Calls</t>
-  </si>
-  <si>
-    <t>Map Out RAG Service Pipeline</t>
-  </si>
-  <si>
-    <t>T05</t>
-  </si>
-  <si>
-    <t>Have the pipeline of models mapped out, showing the flow of how each component will interact with each other- the specifications of each component- and how/why each component is used (compared to other components that could've been used).</t>
-  </si>
-  <si>
-    <t>T06</t>
-  </si>
-  <si>
-    <t>Experiment with the RAG in code form. Either by practicing arbitrary techniques or with the proposed pipeline for this project.</t>
-  </si>
-  <si>
-    <t>Experiment coding a RAG Pipeline</t>
+    <t>Sprint 3 - Data Collection and RAG Research</t>
+  </si>
+  <si>
+    <t>Sprint 2 - API and RAG Research</t>
+  </si>
+  <si>
+    <t>Sprint 4 - RAG Experimentation</t>
+  </si>
+  <si>
+    <t>T07</t>
+  </si>
+  <si>
+    <t>Research and Implement Drivers for parsing HTML/JavaScript for Item Description</t>
+  </si>
+  <si>
+    <t>Regular HTML parsing (like BeautifulSoup) won't work because item descriptions are formatted using JavaScript code at runtime. A browser driver library (Selenium) needs to be used to solve this issue.</t>
+  </si>
+  <si>
+    <t>Can be just a json file for now, or a SQL database if desired. Should contain information from a broad scope of items. Niche items are super important to have</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>Create List of Keywords to use with the Database Builder Code</t>
+  </si>
+  <si>
+    <t>Idea: Prompt ChatGPT for a list of keywords that will encompass a very broad set of items, creating a robust and varied dataset.</t>
   </si>
 </sst>
 </file>
@@ -297,7 +321,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +388,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -546,7 +576,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -613,9 +643,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -661,12 +688,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="9" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -700,13 +721,31 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="12" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="10" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1">
@@ -715,8 +754,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -950,8 +1001,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:G16" totalsRowShown="0" dataDxfId="6" headerRowCellStyle="Heading 1">
-  <autoFilter ref="B2:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:G17" totalsRowShown="0" dataDxfId="6" headerRowCellStyle="Heading 1">
+  <autoFilter ref="B2:G17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="5" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="4" dataCellStyle="Date"/>
@@ -1180,8 +1231,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1197,67 +1248,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="45">
+      <c r="B3" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="42">
         <v>45418</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="42">
         <v>45422</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="43">
         <v>1</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="44">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="23" t="s">
         <v>30</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="16">
         <v>45418</v>
@@ -1265,23 +1316,23 @@
       <c r="D4" s="16">
         <v>45420</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>1</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>34</v>
+      <c r="B5" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="16">
         <v>45420</v>
@@ -1289,23 +1340,23 @@
       <c r="D5" s="16">
         <v>45422</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>1</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>37</v>
+      <c r="G5" s="39" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>38</v>
+      <c r="A6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="16">
         <v>45421</v>
@@ -1313,228 +1364,271 @@
       <c r="D6" s="16">
         <v>45423</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>1</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>37</v>
+      <c r="G6" s="39" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="B7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="32">
         <v>45425</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="32">
         <v>45430</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="34">
         <v>1</v>
       </c>
       <c r="F7" s="12">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="A8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="28">
         <v>45425</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>45427</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>1</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>36</v>
+      <c r="A9" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="29">
+        <v>39</v>
+      </c>
+      <c r="C9" s="28">
         <v>45428</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>45432</v>
       </c>
-      <c r="E9" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="28" t="s">
-        <v>44</v>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="47">
+        <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>41</v>
+      <c r="B10" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="19">
         <v>45433</v>
       </c>
       <c r="D10" s="19">
-        <v>45438</v>
+        <v>45440</v>
       </c>
       <c r="E10" s="17">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F10" s="20">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>45</v>
+      <c r="A11" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="29">
-        <v>45432</v>
-      </c>
-      <c r="D11" s="29">
-        <v>45434</v>
-      </c>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="F11" s="50">
+        <v>42</v>
+      </c>
+      <c r="C11" s="28">
+        <v>45435</v>
+      </c>
+      <c r="D11" s="28">
+        <v>45436</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="28">
+        <v>45438</v>
+      </c>
+      <c r="D12" s="28">
+        <v>45440</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="47">
+        <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="28">
+        <v>45433</v>
+      </c>
+      <c r="D13" s="28">
+        <v>45435</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="47">
+        <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="52">
+        <v>45440</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="53">
+        <v>0</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="29">
-        <v>45434</v>
-      </c>
-      <c r="D12" s="29">
-        <v>45436</v>
-      </c>
-      <c r="E12" s="30">
+      <c r="C15" s="28">
+        <v>45441</v>
+      </c>
+      <c r="D15" s="28">
+        <v>45443</v>
+      </c>
+      <c r="E15" s="29">
         <v>0</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F15" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="29">
-        <v>45436</v>
-      </c>
-      <c r="D13" s="29">
-        <v>45438</v>
-      </c>
-      <c r="E13" s="30">
+      <c r="G15" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="28">
+        <v>45443</v>
+      </c>
+      <c r="D16" s="28">
+        <v>45444</v>
+      </c>
+      <c r="E16" s="29">
         <v>0</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F16" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="38">
+      <c r="G16" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="59">
+        <v>45440</v>
+      </c>
+      <c r="D17" s="59">
+        <v>45440</v>
+      </c>
+      <c r="E17" s="63">
         <v>0</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F17" s="60">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="50">
-        <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="50">
-        <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="28"/>
+      <c r="G17" s="61" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
@@ -1606,7 +1700,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="E4">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1620,7 +1714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E17 E3">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1685,7 +1779,7 @@
           <xm:sqref>E5:E17 E3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{D324F62F-E8A1-7D4C-A618-C6238788154A}">
+          <x14:cfRule type="iconSet" priority="14" id="{D324F62F-E8A1-7D4C-A618-C6238788154A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1704,7 +1798,7 @@
           <xm:sqref>F3:F6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="59" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
+          <x14:cfRule type="iconSet" priority="61" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1723,7 +1817,7 @@
           <xm:sqref>F7 F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{40C6D47B-9DB0-D24D-A7A5-90E4D855D98A}">
+          <x14:cfRule type="iconSet" priority="11" id="{40C6D47B-9DB0-D24D-A7A5-90E4D855D98A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1739,10 +1833,10 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F8</xm:sqref>
+          <xm:sqref>F8:F9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{D2716630-4060-6B4E-92AA-292FB23934E0}">
+          <x14:cfRule type="iconSet" priority="3" id="{9998EC14-F8E8-7A4E-A2E7-C32577A4ABD4}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1758,10 +1852,10 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F9</xm:sqref>
+          <xm:sqref>F11:F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{5ADEE4CE-2BED-DD4E-8930-444E7C1A73B0}">
+          <x14:cfRule type="iconSet" priority="7" id="{5ADEE4CE-2BED-DD4E-8930-444E7C1A73B0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1777,10 +1871,10 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F14:F15</xm:sqref>
+          <xm:sqref>F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{4AE52536-BB3F-0E45-B083-8A6374A42ABF}">
+          <x14:cfRule type="iconSet" priority="2" id="{C3C4FDCB-7691-CE4F-A5D0-4D3BD546C10C}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1796,10 +1890,10 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F16</xm:sqref>
+          <xm:sqref>F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{0CE84CE3-5280-3F42-B189-E63A47BECFA9}">
+          <x14:cfRule type="iconSet" priority="6" id="{0CE84CE3-5280-3F42-B189-E63A47BECFA9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1818,7 +1912,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{9998EC14-F8E8-7A4E-A2E7-C32577A4ABD4}">
+          <x14:cfRule type="iconSet" priority="1" id="{5240BBF1-94F3-9A4D-A73B-6696E3734BD6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1834,7 +1928,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F11:F13</xm:sqref>
+          <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1877,13 +1971,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="2"/>
@@ -1906,7 +2000,7 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1922,7 +2016,7 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
@@ -1936,7 +2030,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>21</v>

--- a/Sprint_Documents/Sprint_Plan.xlsx
+++ b/Sprint_Documents/Sprint_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/--Projects--/Personal/ebay_Auto_Seller/Sprint_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E281AECB-D08A-F344-9CAD-E9FD5A3C8F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D6BA2F-8046-4948-9E4C-FD749F3A02EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46120" yWindow="500" windowWidth="21080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Plan" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>DONE</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>Idea: Prompt ChatGPT for a list of keywords that will encompass a very broad set of items, creating a robust and varied dataset.</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -576,7 +588,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -748,26 +760,20 @@
     <xf numFmtId="14" fontId="7" fillId="12" borderId="10" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -779,7 +785,29 @@
     <cellStyle name="Table Text" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -976,10 +1004,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Task List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Task List" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstColumn" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1001,17 +1029,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:G17" totalsRowShown="0" dataDxfId="6" headerRowCellStyle="Heading 1">
-  <autoFilter ref="B2:G17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="5" dataCellStyle="Table Text"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="4" dataCellStyle="Date"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="End Date" dataDxfId="3" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% Complete" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE" dataDxfId="1" dataCellStyle="Done">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:H17" totalsRowShown="0" dataDxfId="7" headerRowCellStyle="Heading 1">
+  <autoFilter ref="B2:H17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="6" dataCellStyle="Table Text"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="5" dataCellStyle="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="End Date" dataDxfId="4" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% Complete" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE" dataDxfId="2" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks[[#This Row],[% Complete]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Notes" dataDxfId="0" dataCellStyle="Table Text"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Notes" dataDxfId="1" dataCellStyle="Table Text"/>
+    <tableColumn id="2" xr3:uid="{645792EA-80D0-5B45-BFEB-BBD6DF2A1E27}" name="Column1" dataDxfId="0" dataCellStyle="Table Text"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1229,10 +1258,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1244,10 +1273,10 @@
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
         <v>1</v>
@@ -1257,8 +1286,9 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
@@ -1280,8 +1310,11 @@
       <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>16</v>
       </c>
@@ -1302,8 +1335,9 @@
         <v>1</v>
       </c>
       <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
@@ -1326,8 +1360,11 @@
       <c r="G4" s="39" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -1350,8 +1387,11 @@
       <c r="G5" s="39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>33</v>
       </c>
@@ -1374,8 +1414,11 @@
       <c r="G6" s="39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>24</v>
       </c>
@@ -1396,8 +1439,9 @@
         <v>1</v>
       </c>
       <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>33</v>
       </c>
@@ -1420,8 +1464,11 @@
       <c r="G8" s="26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>34</v>
       </c>
@@ -1444,8 +1491,11 @@
       <c r="G9" s="27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
@@ -1466,8 +1516,9 @@
         <v>0</v>
       </c>
       <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="1:8" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -1490,8 +1541,11 @@
       <c r="G11" s="27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
         <v>44</v>
       </c>
@@ -1514,8 +1568,11 @@
       <c r="G12" s="27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>46</v>
       </c>
@@ -1538,8 +1595,11 @@
       <c r="G13" s="27" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
         <v>50</v>
       </c>
@@ -1557,8 +1617,9 @@
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="55"/>
-    </row>
-    <row r="15" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="55"/>
+    </row>
+    <row r="15" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>46</v>
       </c>
@@ -1581,8 +1642,11 @@
       <c r="G15" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>54</v>
       </c>
@@ -1605,32 +1669,38 @@
       <c r="G16" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="16">
         <v>45440</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="16">
         <v>45440</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="57">
         <v>0</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1639,7 +1709,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1648,7 +1718,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1657,7 +1727,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -1665,7 +1735,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -1673,7 +1743,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -1681,7 +1751,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -1689,7 +1759,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -1893,6 +1963,25 @@
           <xm:sqref>F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{5240BBF1-94F3-9A4D-A73B-6696E3734BD6}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{0CE84CE3-5280-3F42-B189-E63A47BECFA9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -1910,25 +1999,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{5240BBF1-94F3-9A4D-A73B-6696E3734BD6}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2000,7 +2070,7 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2016,7 +2086,7 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
@@ -2030,7 +2100,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>21</v>

--- a/Sprint_Documents/Sprint_Plan.xlsx
+++ b/Sprint_Documents/Sprint_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/--Projects--/Personal/ebay_Auto_Seller/Sprint_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D6BA2F-8046-4948-9E4C-FD749F3A02EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FCF6C8-5FF6-0C4D-BBEE-3B440D8834CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46120" yWindow="500" windowWidth="21080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48020" yWindow="500" windowWidth="19160" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Plan" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -763,16 +763,13 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1260,8 +1257,8 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1307,7 @@
       <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1360,7 +1357,7 @@
       <c r="G4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1387,7 +1384,7 @@
       <c r="G5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1414,7 +1411,7 @@
       <c r="G6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="39" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1464,7 +1461,7 @@
       <c r="G8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="39" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1491,7 +1488,7 @@
       <c r="G9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="39" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1541,7 +1538,7 @@
       <c r="G11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="60" t="s">
+      <c r="H11" s="39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1568,7 +1565,7 @@
       <c r="G12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="39" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1595,7 +1592,7 @@
       <c r="G13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="39" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1642,7 +1639,7 @@
       <c r="G15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="39" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1669,7 +1666,7 @@
       <c r="G16" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1696,7 +1693,7 @@
       <c r="G17" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="39" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2070,7 +2067,7 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2086,7 +2083,7 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
@@ -2100,7 +2097,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>21</v>

--- a/Sprint_Documents/Sprint_Plan.xlsx
+++ b/Sprint_Documents/Sprint_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/--Projects--/Personal/ebay_Auto_Seller/Sprint_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FCF6C8-5FF6-0C4D-BBEE-3B440D8834CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473F9ADC-D490-2F44-A5D4-BF3659625F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48020" yWindow="500" windowWidth="19160" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1257,8 +1257,8 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1684,11 +1684,11 @@
         <v>45440</v>
       </c>
       <c r="E17" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>60</v>

--- a/Sprint_Documents/Sprint_Plan.xlsx
+++ b/Sprint_Documents/Sprint_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/--Projects--/Personal/ebay_Auto_Seller/Sprint_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473F9ADC-D490-2F44-A5D4-BF3659625F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C7DA95-6771-294A-BDF5-18D811F1C6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48020" yWindow="500" windowWidth="19160" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Plan" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>DONE</t>
   </si>
@@ -174,15 +174,9 @@
     <t>Factor DataScraper code for Abitrary API Calls</t>
   </si>
   <si>
-    <t>Map Out RAG Service Pipeline</t>
-  </si>
-  <si>
     <t>T05</t>
   </si>
   <si>
-    <t>Have the pipeline of models mapped out, showing the flow of how each component will interact with each other- the specifications of each component- and how/why each component is used (compared to other components that could've been used).</t>
-  </si>
-  <si>
     <t>T06</t>
   </si>
   <si>
@@ -228,16 +222,49 @@
     <t>Idea: Prompt ChatGPT for a list of keywords that will encompass a very broad set of items, creating a robust and varied dataset.</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>H</t>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>As a developer, I want to learn about Docker images so that I can containerize programs (micro-services) effectively and ensure they run consistently across different environments.</t>
+  </si>
+  <si>
+    <t>As a developer, I want to create a mapping of micro-services so that I can understand the interactions and data flow between them, ensuring seamless integration.</t>
+  </si>
+  <si>
+    <t>As a developer, I want to create a GitHub repository so that I can manage and version control the code for my micro-services project, facilitating collaboration and code sharing.</t>
+  </si>
+  <si>
+    <t>As a developer, I want to research RAG pipeline frameworks and models (image classifier, retrieval model, generative model, etc.) so that I can set up an efficient and effective RAG service pipeline for generating descriptions.</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>As a developer, I want to research and implement drivers for parsing HTML and JavaScript so that I can accurately extract item descriptions that are generated at runtime using JavaScript, ensuring that the data collected is complete and accurate.</t>
+  </si>
+  <si>
+    <t>As a developer, I want to build code to create a database (either a JSON file for now or an SQL database if desired) so that I can store information from a broad scope of items, including niche items, to facilitate easy access and analysis for the project.</t>
+  </si>
+  <si>
+    <t>As a developer, I want to experiment with coding a Retrieval-Augmented Generation (RAG) pipeline so that I can practice implementing arbitrary techniques or the proposed pipeline for this project, ensuring I understand the flow and interaction of components.</t>
+  </si>
+  <si>
+    <t>Data to extract: Title, Price, Listing Length (in time), Condition, Description</t>
+  </si>
+  <si>
+    <t>Extract Relavent Data to RAG Database</t>
+  </si>
+  <si>
+    <t>As a developer, I want to create a list of keywords to use with the database builder code so that I can encompass a very broad set of items, creating a robust and varied dataset for analysis and description generation.</t>
   </si>
 </sst>
 </file>
@@ -247,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +358,16 @@
       <color theme="8" tint="0.39997558519241921"/>
       <name val="Georgia"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Charter Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Charter Bold"/>
     </font>
   </fonts>
   <fills count="13">
@@ -588,7 +625,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -771,6 +808,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -782,7 +831,35 @@
     <cellStyle name="Table Text" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1001,10 +1078,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Task List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Task List" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstColumn" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1026,18 +1103,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:H17" totalsRowShown="0" dataDxfId="7" headerRowCellStyle="Heading 1">
-  <autoFilter ref="B2:H17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="6" dataCellStyle="Table Text"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="5" dataCellStyle="Date"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="End Date" dataDxfId="4" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% Complete" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE" dataDxfId="2" dataCellStyle="Done">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:I17" totalsRowShown="0" dataDxfId="8" headerRowCellStyle="Heading 1">
+  <autoFilter ref="B2:I17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="7" dataCellStyle="Table Text"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="6" dataCellStyle="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="End Date" dataDxfId="5" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% Complete" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE" dataDxfId="3" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks[[#This Row],[% Complete]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Notes" dataDxfId="1" dataCellStyle="Table Text"/>
-    <tableColumn id="2" xr3:uid="{645792EA-80D0-5B45-BFEB-BBD6DF2A1E27}" name="Column1" dataDxfId="0" dataCellStyle="Table Text"/>
+    <tableColumn id="10" xr3:uid="{6216BD3D-9636-1448-B7E2-3867552F3E25}" name="User Story" dataDxfId="0" dataCellStyle="Done"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Notes" dataDxfId="2" dataCellStyle="Table Text"/>
+    <tableColumn id="2" xr3:uid="{645792EA-80D0-5B45-BFEB-BBD6DF2A1E27}" name="Difficulty" dataDxfId="1" dataCellStyle="Table Text"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1255,13 +1333,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
@@ -1271,9 +1349,10 @@
     <col min="6" max="6" width="3" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
         <v>1</v>
@@ -1284,8 +1363,9 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-    </row>
-    <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" ht="25" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
@@ -1305,13 +1385,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="25" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>16</v>
       </c>
@@ -1331,10 +1414,11 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" ht="96">
       <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
@@ -1354,14 +1438,17 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="91" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -1381,14 +1468,17 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="96">
       <c r="A6" s="23" t="s">
         <v>33</v>
       </c>
@@ -1408,19 +1498,20 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="33" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="32">
         <v>45425</v>
@@ -1435,10 +1526,11 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="30"/>
-    </row>
-    <row r="8" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" ht="128">
       <c r="A8" s="23" t="s">
         <v>33</v>
       </c>
@@ -1458,14 +1550,17 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="128">
       <c r="A9" s="38" t="s">
         <v>34</v>
       </c>
@@ -1485,19 +1580,22 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="19">
         <v>45433</v>
@@ -1512,10 +1610,11 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="36"/>
-    </row>
-    <row r="11" spans="1:8" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="112">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -1535,19 +1634,22 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="144">
       <c r="A12" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="28">
         <v>45438</v>
@@ -1562,19 +1664,22 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="144">
       <c r="A13" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="28">
         <v>45433</v>
@@ -1589,19 +1694,22 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="33" customHeight="1">
       <c r="A14" s="50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="52">
         <v>45440</v>
@@ -1613,48 +1721,52 @@
         <v>0</v>
       </c>
       <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="55"/>
-    </row>
-    <row r="15" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="55"/>
+    </row>
+    <row r="15" spans="1:9" ht="160">
       <c r="A15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="C15" s="28">
         <v>45441</v>
       </c>
       <c r="D15" s="28">
-        <v>45443</v>
+        <v>45445</v>
       </c>
       <c r="E15" s="29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F15" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="96">
       <c r="A16" s="49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C16" s="28">
         <v>45443</v>
       </c>
       <c r="D16" s="28">
-        <v>45444</v>
+        <v>45445</v>
       </c>
       <c r="E16" s="29">
         <v>0</v>
@@ -1663,19 +1775,22 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="128">
       <c r="A17" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="16">
         <v>45440</v>
@@ -1690,14 +1805,17 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>60</v>
+      <c r="G17" s="61" t="s">
+        <v>73</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="33" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1706,7 +1824,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="33" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1715,7 +1833,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="33" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1724,7 +1842,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="33" customHeight="1">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -1732,7 +1850,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="33" customHeight="1">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -1740,7 +1858,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="33" customHeight="1">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -1748,7 +1866,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="33" customHeight="1">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -1756,7 +1874,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="33" customHeight="1">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -1862,7 +1980,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F3:F6</xm:sqref>
+          <xm:sqref>F3:G6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="61" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
@@ -1881,7 +1999,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F7 F10</xm:sqref>
+          <xm:sqref>F7:G7 F10:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="11" id="{40C6D47B-9DB0-D24D-A7A5-90E4D855D98A}">
@@ -1900,7 +2018,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F8:F9</xm:sqref>
+          <xm:sqref>F8:G9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{9998EC14-F8E8-7A4E-A2E7-C32577A4ABD4}">
@@ -1919,7 +2037,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F11:F13</xm:sqref>
+          <xm:sqref>F11:G13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="7" id="{5ADEE4CE-2BED-DD4E-8930-444E7C1A73B0}">
@@ -1938,7 +2056,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F14</xm:sqref>
+          <xm:sqref>F14:G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{C3C4FDCB-7691-CE4F-A5D0-4D3BD546C10C}">
@@ -1957,7 +2075,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F15</xm:sqref>
+          <xm:sqref>F15:G15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{5240BBF1-94F3-9A4D-A73B-6696E3734BD6}">
@@ -1976,7 +2094,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F16</xm:sqref>
+          <xm:sqref>F16:G16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{0CE84CE3-5280-3F42-B189-E63A47BECFA9}">
@@ -1995,7 +2113,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F17</xm:sqref>
+          <xm:sqref>F17:G17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2011,16 +2129,16 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="6" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="46" customHeight="1">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2033,7 +2151,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="23" customHeight="1" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
@@ -2050,7 +2168,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="147" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2066,7 +2184,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="147" customHeight="1" thickBot="1">
       <c r="A4" s="59" t="s">
         <v>23</v>
       </c>
@@ -2082,7 +2200,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="147" customHeight="1" thickBot="1">
       <c r="A5" s="60"/>
       <c r="B5" s="7" t="s">
         <v>20</v>
@@ -2096,7 +2214,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="147" customHeight="1" thickBot="1">
       <c r="A6" s="60"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
@@ -2106,7 +2224,7 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="147" customHeight="1" thickBot="1">
       <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
         <v>26</v>
@@ -2115,15 +2233,15 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="147" customHeight="1">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="147" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" ht="147" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:10" ht="147" customHeight="1"/>
+    <row r="10" spans="1:10" ht="147" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:A6"/>

--- a/Sprint_Documents/Sprint_Plan.xlsx
+++ b/Sprint_Documents/Sprint_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Desktop/--Projects--/Personal/ebay_Auto_Seller/Sprint_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C7DA95-6771-294A-BDF5-18D811F1C6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54828BCC-6B1C-D54F-A30F-C0D9B3BC320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,10 +261,10 @@
     <t>Data to extract: Title, Price, Listing Length (in time), Condition, Description</t>
   </si>
   <si>
-    <t>Extract Relavent Data to RAG Database</t>
-  </si>
-  <si>
     <t>As a developer, I want to create a list of keywords to use with the database builder code so that I can encompass a very broad set of items, creating a robust and varied dataset for analysis and description generation.</t>
+  </si>
+  <si>
+    <t>Extract Relavent Data and Format for ColBERT Retrieval</t>
   </si>
 </sst>
 </file>
@@ -803,23 +803,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="12" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -832,34 +832,6 @@
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -902,6 +874,34 @@
         <right style="thin">
           <color theme="1"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1113,9 +1113,9 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE" dataDxfId="3" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks[[#This Row],[% Complete]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6216BD3D-9636-1448-B7E2-3867552F3E25}" name="User Story" dataDxfId="0" dataCellStyle="Done"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Notes" dataDxfId="2" dataCellStyle="Table Text"/>
-    <tableColumn id="2" xr3:uid="{645792EA-80D0-5B45-BFEB-BBD6DF2A1E27}" name="Difficulty" dataDxfId="1" dataCellStyle="Table Text"/>
+    <tableColumn id="10" xr3:uid="{6216BD3D-9636-1448-B7E2-3867552F3E25}" name="User Story" dataDxfId="2" dataCellStyle="Done"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Notes" dataDxfId="1" dataCellStyle="Table Text"/>
+    <tableColumn id="2" xr3:uid="{645792EA-80D0-5B45-BFEB-BBD6DF2A1E27}" name="Difficulty" dataDxfId="0" dataCellStyle="Table Text"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1335,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1"/>
@@ -1438,7 +1438,7 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="59" t="s">
         <v>61</v>
       </c>
       <c r="H4" s="39" t="s">
@@ -1468,7 +1468,7 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="59" t="s">
         <v>60</v>
       </c>
       <c r="H5" s="39" t="s">
@@ -1498,7 +1498,7 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="59" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="39"/>
@@ -1526,7 +1526,7 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="62"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
     </row>
@@ -1550,7 +1550,7 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="59" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="26" t="s">
@@ -1580,7 +1580,7 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="59" t="s">
         <v>63</v>
       </c>
       <c r="H9" s="27" t="s">
@@ -1610,7 +1610,7 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
     </row>
@@ -1634,7 +1634,7 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="59" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="27" t="s">
@@ -1664,7 +1664,7 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="59" t="s">
         <v>68</v>
       </c>
       <c r="H12" s="27" t="s">
@@ -1694,7 +1694,7 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="59" t="s">
         <v>69</v>
       </c>
       <c r="H13" s="27" t="s">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="54"/>
-      <c r="G14" s="64"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
     </row>
@@ -1735,17 +1735,15 @@
       <c r="C15" s="28">
         <v>45441</v>
       </c>
-      <c r="D15" s="28">
-        <v>45445</v>
-      </c>
+      <c r="D15" s="28"/>
       <c r="E15" s="29">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="47">
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="59" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="27" t="s">
@@ -1760,14 +1758,12 @@
         <v>52</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="28">
         <v>45443</v>
       </c>
-      <c r="D16" s="28">
-        <v>45445</v>
-      </c>
+      <c r="D16" s="28"/>
       <c r="E16" s="29">
         <v>0</v>
       </c>
@@ -1775,7 +1771,7 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="59" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="27" t="s">
@@ -1805,8 +1801,8 @@
         <f>--(Tasks[[#This Row],[% Complete]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G17" s="61" t="s">
-        <v>73</v>
+      <c r="G17" s="59" t="s">
+        <v>72</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>58</v>
@@ -2185,7 +2181,7 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="147" customHeight="1" thickBot="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2201,7 +2197,7 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="147" customHeight="1" thickBot="1">
-      <c r="A5" s="60"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
@@ -2215,7 +2211,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="147" customHeight="1" thickBot="1">
-      <c r="A6" s="60"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>21</v>
